--- a/results/RandomForestClassifier_randomsearch-train_df.xlsx
+++ b/results/RandomForestClassifier_randomsearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6741573033707866</v>
+        <v>0.8041237113402061</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7010309278350516</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6988795518207283</v>
+        <v>0.7951388888888888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7038277511961722</v>
+        <v>0.7956864564007421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6875941156029191</v>
+        <v>0.7953202826363952</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.719104846239571</v>
+        <v>0.7960722819593788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6900503070862122</v>
+        <v>0.7957935852548795</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.7835051546391752</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7155963302752293</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7741935483870968</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.655982905982906</v>
+        <v>0.773611111111111</v>
       </c>
       <c r="C10" t="n">
-        <v>0.657177033492823</v>
+        <v>0.7741187384044527</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6564994638389133</v>
+        <v>0.7737750492297</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6680911680911682</v>
+        <v>0.7745818399044204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6673021168434011</v>
+        <v>0.774298173176446</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.78</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7741935483870968</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.777511961722488</v>
+        <v>0.7737209302325582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.777511961722488</v>
+        <v>0.7729591836734694</v>
       </c>
       <c r="D15" t="n">
-        <v>0.777511961722488</v>
+        <v>0.7732497387669801</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7740585146286572</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7740362467837439</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6835443037974684</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.766355140186916</v>
+        <v>0.8604651162790699</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.8709677419354839</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7234990619136961</v>
+        <v>0.8718487394957983</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7279904306220095</v>
+        <v>0.8694341372912802</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7249497219921922</v>
+        <v>0.8702325581395349</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7353739232181404</v>
+        <v>0.8713592964067348</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7325184543503676</v>
+        <v>0.8707576894223557</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7500000000000001</v>
+        <v>0.7872340425531914</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.75</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8113207547169811</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7787114845938375</v>
+        <v>0.7861111111111111</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7856459330143541</v>
+        <v>0.7866419294990723</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7806603773584906</v>
+        <v>0.7849213691026826</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7904882383060751</v>
+        <v>0.78805256869773</v>
       </c>
       <c r="C26" t="n">
         <v>0.7849462365591398</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7862649624670318</v>
+        <v>0.7850457063849681</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
